--- a/src/main/java/com/hrm/qa/testdata/HRM.xlsx
+++ b/src/main/java/com/hrm/qa/testdata/HRM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>userRole</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Enabled</t>
   </si>
   <si>
-    <t>odisodis</t>
+    <t>heyodis</t>
   </si>
   <si>
     <t>Admin123!</t>
@@ -49,10 +49,13 @@
     <t>ESS</t>
   </si>
   <si>
+    <t>Manning</t>
+  </si>
+  <si>
     <t>Disabled</t>
   </si>
   <si>
-    <t>hiodis</t>
+    <t>heymanning</t>
   </si>
 </sst>
 </file>
@@ -470,13 +473,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>10</v>
